--- a/TODAAS/analisisSeparabilidad/CaracteristicasHistogramaFourier500X500.xlsx
+++ b/TODAAS/analisisSeparabilidad/CaracteristicasHistogramaFourier500X500.xlsx
@@ -15,45 +15,50 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$354</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$3:$D$354</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$O$2</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$O$3:$O$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$3:$D$354</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$K$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$K$3:$K$474</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$R$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$R$3:$R$32</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$354</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$3:$I$474</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$P$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$P$3:$P$32</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$2</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$3:$C$354</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$K$2</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$J$2</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$J$3:$J$474</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$Q$2</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$Q$3:$Q$32</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$3:$B$354</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$I$3:$I$474</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$P$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$P$3:$P$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$3:$L$474</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$3:$F$354</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$M$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$M$3:$M$474</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$T$2</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$T$3:$T$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$S$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$S$3:$S$32</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$3:$D$354</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$K$3:$K$474</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$R$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$R$3:$R$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$3:$K$474</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$E$3:$E$354</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$L$3:$L$474</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$S$2</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$S$3:$S$32</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$F$3:$F$354</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$M$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$M$3:$M$474</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$R$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$T$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$T$3:$T$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$R$3:$R$32</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$3:$A$354</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$2</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$3:$H$474</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -276,7 +281,7 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -289,7 +294,7 @@
           </cx:tx>
           <cx:dataId val="1"/>
           <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -302,13 +307,13 @@
           </cx:tx>
           <cx:dataId val="2"/>
           <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.10000002"/>
+        <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -317,7 +322,7 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
   <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
@@ -328,17 +333,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -389,7 +394,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{407F91A6-35F8-47B5-A592-EE642E37BE61}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>DM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -402,7 +407,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0E36F277-26D1-46BC-8AA3-57D247F8DF3B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>RE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -415,7 +420,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{762622CE-987C-4B8E-8F7F-30E1867E39E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>NO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -564,17 +569,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -625,7 +630,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{407F91A6-35F8-47B5-A592-EE642E37BE61}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>DM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -638,7 +643,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0E36F277-26D1-46BC-8AA3-57D247F8DF3B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>RE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -651,7 +656,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{762622CE-987C-4B8E-8F7F-30E1867E39E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>NO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -679,125 +684,6 @@
 </file>
 
 <file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>DE</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{407F91A6-35F8-47B5-A592-EE642E37BE61}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>DM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0E36F277-26D1-46BC-8AA3-57D247F8DF3B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>RE</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{762622CE-987C-4B8E-8F7F-30E1867E39E7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>NO</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanMarker="0"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1.10000002"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -852,7 +738,7 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
-              <a:t>VAR</a:t>
+              <a:t>DE</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -890,6 +776,125 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>NO</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanMarker="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.10000002"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>VAR</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{407F91A6-35F8-47B5-A592-EE642E37BE61}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>DM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanMarker="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0E36F277-26D1-46BC-8AA3-57D247F8DF3B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>RE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanMarker="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{762622CE-987C-4B8E-8F7F-30E1867E39E7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>NO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1162,7 +1167,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1186,7 +1191,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
@@ -1196,7 +1201,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
     <cs:bodyPr rot="-60000000" vert="horz"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1208,7 +1213,7 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1274,6 +1279,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1288,45 +1296,32 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1334,6 +1329,14 @@
           <a:lumMod val="60000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1391,14 +1394,13 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1434,13 +1436,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1455,8 +1458,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
             <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -1471,7 +1474,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1529,7 +1532,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
@@ -1562,13 +1565,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" spc="20" baseline="0"/>
     <cs:bodyPr rot="0" vert="horz"/>
   </cs:title>
   <cs:trendline>
@@ -1613,8 +1616,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1630,7 +1633,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
     <cs:bodyPr rot="-60000000" vert="horz"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4774,7 +4777,7 @@
   <dimension ref="A1:T474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
